--- a/Results/OLS_Results_Top.xlsx
+++ b/Results/OLS_Results_Top.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3601" uniqueCount="1686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3601" uniqueCount="1689">
   <si>
     <t>index</t>
   </si>
@@ -5059,19 +5059,28 @@
     <t>0.274</t>
   </si>
   <si>
-    <t>09:17:22</t>
-  </si>
-  <si>
-    <t>09:17:21</t>
-  </si>
-  <si>
-    <t>09:17:23</t>
-  </si>
-  <si>
-    <t>09:17:24</t>
-  </si>
-  <si>
-    <t>09:17:25</t>
+    <t>09:34:08</t>
+  </si>
+  <si>
+    <t>09:34:07</t>
+  </si>
+  <si>
+    <t>09:34:09</t>
+  </si>
+  <si>
+    <t>09:34:10</t>
+  </si>
+  <si>
+    <t>09:34:11</t>
+  </si>
+  <si>
+    <t>09:34:12</t>
+  </si>
+  <si>
+    <t>09:34:13</t>
+  </si>
+  <si>
+    <t>09:34:14</t>
   </si>
 </sst>
 </file>
@@ -5853,7 +5862,7 @@
         <v>1572</v>
       </c>
       <c r="Z7" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -5930,7 +5939,7 @@
         <v>1573</v>
       </c>
       <c r="Z8" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -6007,7 +6016,7 @@
         <v>1574</v>
       </c>
       <c r="Z9" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -6084,7 +6093,7 @@
         <v>1575</v>
       </c>
       <c r="Z10" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -6161,7 +6170,7 @@
         <v>1576</v>
       </c>
       <c r="Z11" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -6238,7 +6247,7 @@
         <v>1577</v>
       </c>
       <c r="Z12" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -6315,7 +6324,7 @@
         <v>1578</v>
       </c>
       <c r="Z13" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -6623,7 +6632,7 @@
         <v>1582</v>
       </c>
       <c r="Z17" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -7547,7 +7556,7 @@
         <v>1594</v>
       </c>
       <c r="Z29" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="30" spans="1:26">
@@ -7624,7 +7633,7 @@
         <v>1595</v>
       </c>
       <c r="Z30" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="31" spans="1:26">
@@ -7701,7 +7710,7 @@
         <v>311</v>
       </c>
       <c r="Z31" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="32" spans="1:26">
@@ -7778,7 +7787,7 @@
         <v>1515</v>
       </c>
       <c r="Z32" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="33" spans="1:26">
@@ -7855,7 +7864,7 @@
         <v>319</v>
       </c>
       <c r="Z33" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="34" spans="1:26">
@@ -7932,7 +7941,7 @@
         <v>1596</v>
       </c>
       <c r="Z34" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="35" spans="1:26">
@@ -8009,7 +8018,7 @@
         <v>294</v>
       </c>
       <c r="Z35" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="36" spans="1:26">
@@ -8086,7 +8095,7 @@
         <v>1201</v>
       </c>
       <c r="Z36" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="37" spans="1:26">
@@ -8163,7 +8172,7 @@
         <v>1597</v>
       </c>
       <c r="Z37" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="38" spans="1:26">
@@ -8240,7 +8249,7 @@
         <v>1598</v>
       </c>
       <c r="Z38" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="39" spans="1:26">
@@ -8317,7 +8326,7 @@
         <v>1543</v>
       </c>
       <c r="Z39" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="40" spans="1:26">
@@ -8394,7 +8403,7 @@
         <v>296</v>
       </c>
       <c r="Z40" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="41" spans="1:26">
@@ -8471,7 +8480,7 @@
         <v>1599</v>
       </c>
       <c r="Z41" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="42" spans="1:26">
@@ -8548,7 +8557,7 @@
         <v>1600</v>
       </c>
       <c r="Z42" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="43" spans="1:26">
@@ -8625,7 +8634,7 @@
         <v>1601</v>
       </c>
       <c r="Z43" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="44" spans="1:26">
@@ -8702,7 +8711,7 @@
         <v>1602</v>
       </c>
       <c r="Z44" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="45" spans="1:26">
@@ -8779,7 +8788,7 @@
         <v>1603</v>
       </c>
       <c r="Z45" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="46" spans="1:26">
@@ -9241,7 +9250,7 @@
         <v>1609</v>
       </c>
       <c r="Z51" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="52" spans="1:26">
@@ -9318,7 +9327,7 @@
         <v>1602</v>
       </c>
       <c r="Z52" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="53" spans="1:26">
@@ -9395,7 +9404,7 @@
         <v>1610</v>
       </c>
       <c r="Z53" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="54" spans="1:26">
@@ -9472,7 +9481,7 @@
         <v>1611</v>
       </c>
       <c r="Z54" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="55" spans="1:26">
@@ -9549,7 +9558,7 @@
         <v>1612</v>
       </c>
       <c r="Z55" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="56" spans="1:26">
@@ -9626,7 +9635,7 @@
         <v>1613</v>
       </c>
       <c r="Z56" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="57" spans="1:26">
@@ -9703,7 +9712,7 @@
         <v>1614</v>
       </c>
       <c r="Z57" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="58" spans="1:26">
@@ -9780,7 +9789,7 @@
         <v>1326</v>
       </c>
       <c r="Z58" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="59" spans="1:26">
@@ -9857,7 +9866,7 @@
         <v>1615</v>
       </c>
       <c r="Z59" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="60" spans="1:26">
@@ -9934,7 +9943,7 @@
         <v>1330</v>
       </c>
       <c r="Z60" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="61" spans="1:26">
@@ -10011,7 +10020,7 @@
         <v>1616</v>
       </c>
       <c r="Z61" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="62" spans="1:26">
@@ -10088,7 +10097,7 @@
         <v>1318</v>
       </c>
       <c r="Z62" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="63" spans="1:26">
@@ -10165,7 +10174,7 @@
         <v>1617</v>
       </c>
       <c r="Z63" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="64" spans="1:26">
@@ -10242,7 +10251,7 @@
         <v>1618</v>
       </c>
       <c r="Z64" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="65" spans="1:26">
@@ -10319,7 +10328,7 @@
         <v>1619</v>
       </c>
       <c r="Z65" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="66" spans="1:26">
@@ -10396,7 +10405,7 @@
         <v>1542</v>
       </c>
       <c r="Z66" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="67" spans="1:26">
@@ -10473,7 +10482,7 @@
         <v>1620</v>
       </c>
       <c r="Z67" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="68" spans="1:26">
@@ -10550,7 +10559,7 @@
         <v>1621</v>
       </c>
       <c r="Z68" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="69" spans="1:26">
@@ -10627,7 +10636,7 @@
         <v>1569</v>
       </c>
       <c r="Z69" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="70" spans="1:26">
@@ -10704,7 +10713,7 @@
         <v>1622</v>
       </c>
       <c r="Z70" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="71" spans="1:26">
@@ -10781,7 +10790,7 @@
         <v>1623</v>
       </c>
       <c r="Z71" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="72" spans="1:26">
@@ -10858,7 +10867,7 @@
         <v>1624</v>
       </c>
       <c r="Z72" t="s">
-        <v>1683</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="73" spans="1:26">
@@ -10935,7 +10944,7 @@
         <v>1625</v>
       </c>
       <c r="Z73" t="s">
-        <v>1683</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="74" spans="1:26">
@@ -11012,7 +11021,7 @@
         <v>1626</v>
       </c>
       <c r="Z74" t="s">
-        <v>1683</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="75" spans="1:26">
@@ -11089,7 +11098,7 @@
         <v>1627</v>
       </c>
       <c r="Z75" t="s">
-        <v>1683</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="76" spans="1:26">
@@ -11166,7 +11175,7 @@
         <v>1628</v>
       </c>
       <c r="Z76" t="s">
-        <v>1683</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="77" spans="1:26">
@@ -11243,7 +11252,7 @@
         <v>1629</v>
       </c>
       <c r="Z77" t="s">
-        <v>1683</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="78" spans="1:26">
@@ -11320,7 +11329,7 @@
         <v>1630</v>
       </c>
       <c r="Z78" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="79" spans="1:26">
@@ -11397,7 +11406,7 @@
         <v>1631</v>
       </c>
       <c r="Z79" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="80" spans="1:26">
@@ -11474,7 +11483,7 @@
         <v>1632</v>
       </c>
       <c r="Z80" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="81" spans="1:26">
@@ -11551,7 +11560,7 @@
         <v>1633</v>
       </c>
       <c r="Z81" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="82" spans="1:26">
@@ -11628,7 +11637,7 @@
         <v>321</v>
       </c>
       <c r="Z82" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="83" spans="1:26">
@@ -11705,7 +11714,7 @@
         <v>317</v>
       </c>
       <c r="Z83" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="84" spans="1:26">
@@ -11782,7 +11791,7 @@
         <v>301</v>
       </c>
       <c r="Z84" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="85" spans="1:26">
@@ -11859,7 +11868,7 @@
         <v>1634</v>
       </c>
       <c r="Z85" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="86" spans="1:26">
@@ -11936,7 +11945,7 @@
         <v>295</v>
       </c>
       <c r="Z86" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="87" spans="1:26">
@@ -12013,7 +12022,7 @@
         <v>282</v>
       </c>
       <c r="Z87" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="88" spans="1:26">
@@ -12090,7 +12099,7 @@
         <v>1635</v>
       </c>
       <c r="Z88" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="89" spans="1:26">
@@ -12167,7 +12176,7 @@
         <v>324</v>
       </c>
       <c r="Z89" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="90" spans="1:26">
@@ -12244,7 +12253,7 @@
         <v>302</v>
       </c>
       <c r="Z90" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="91" spans="1:26">
@@ -12321,7 +12330,7 @@
         <v>1636</v>
       </c>
       <c r="Z91" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="92" spans="1:26">
@@ -12398,7 +12407,7 @@
         <v>1636</v>
       </c>
       <c r="Z92" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="93" spans="1:26">
@@ -12475,7 +12484,7 @@
         <v>1637</v>
       </c>
       <c r="Z93" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="94" spans="1:26">
@@ -12552,7 +12561,7 @@
         <v>1636</v>
       </c>
       <c r="Z94" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="95" spans="1:26">
@@ -12629,7 +12638,7 @@
         <v>1638</v>
       </c>
       <c r="Z95" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="96" spans="1:26">
@@ -12706,7 +12715,7 @@
         <v>1639</v>
       </c>
       <c r="Z96" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="97" spans="1:26">
@@ -12783,7 +12792,7 @@
         <v>1640</v>
       </c>
       <c r="Z97" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="98" spans="1:26">
@@ -12860,7 +12869,7 @@
         <v>1641</v>
       </c>
       <c r="Z98" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="99" spans="1:26">
@@ -12937,7 +12946,7 @@
         <v>1642</v>
       </c>
       <c r="Z99" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="100" spans="1:26">
@@ -13014,7 +13023,7 @@
         <v>1643</v>
       </c>
       <c r="Z100" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="101" spans="1:26">
@@ -13091,7 +13100,7 @@
         <v>1644</v>
       </c>
       <c r="Z101" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="102" spans="1:26">
@@ -13168,7 +13177,7 @@
         <v>1645</v>
       </c>
       <c r="Z102" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="103" spans="1:26">
@@ -13245,7 +13254,7 @@
         <v>1646</v>
       </c>
       <c r="Z103" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="104" spans="1:26">
@@ -13322,7 +13331,7 @@
         <v>1647</v>
       </c>
       <c r="Z104" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="105" spans="1:26">
@@ -13399,7 +13408,7 @@
         <v>1648</v>
       </c>
       <c r="Z105" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="106" spans="1:26">
@@ -13476,7 +13485,7 @@
         <v>1649</v>
       </c>
       <c r="Z106" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="107" spans="1:26">
@@ -13553,7 +13562,7 @@
         <v>1650</v>
       </c>
       <c r="Z107" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="108" spans="1:26">
@@ -13630,7 +13639,7 @@
         <v>1623</v>
       </c>
       <c r="Z108" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="109" spans="1:26">
@@ -13707,7 +13716,7 @@
         <v>1651</v>
       </c>
       <c r="Z109" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="110" spans="1:26">
@@ -13784,7 +13793,7 @@
         <v>1652</v>
       </c>
       <c r="Z110" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="111" spans="1:26">
@@ -13861,7 +13870,7 @@
         <v>1653</v>
       </c>
       <c r="Z111" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="112" spans="1:26">
@@ -13938,7 +13947,7 @@
         <v>1654</v>
       </c>
       <c r="Z112" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="113" spans="1:26">
@@ -14015,7 +14024,7 @@
         <v>1622</v>
       </c>
       <c r="Z113" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="114" spans="1:26">
@@ -14092,7 +14101,7 @@
         <v>1655</v>
       </c>
       <c r="Z114" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="115" spans="1:26">
@@ -14169,7 +14178,7 @@
         <v>1652</v>
       </c>
       <c r="Z115" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="116" spans="1:26">
@@ -14246,7 +14255,7 @@
         <v>1656</v>
       </c>
       <c r="Z116" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="117" spans="1:26">
@@ -14323,7 +14332,7 @@
         <v>1657</v>
       </c>
       <c r="Z117" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="118" spans="1:26">
@@ -14400,7 +14409,7 @@
         <v>1658</v>
       </c>
       <c r="Z118" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="119" spans="1:26">
@@ -14477,7 +14486,7 @@
         <v>1659</v>
       </c>
       <c r="Z119" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="120" spans="1:26">
@@ -14554,7 +14563,7 @@
         <v>1660</v>
       </c>
       <c r="Z120" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="121" spans="1:26">
@@ -14631,7 +14640,7 @@
         <v>1558</v>
       </c>
       <c r="Z121" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="122" spans="1:26">
@@ -14708,7 +14717,7 @@
         <v>1661</v>
       </c>
       <c r="Z122" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="123" spans="1:26">
@@ -14785,7 +14794,7 @@
         <v>1662</v>
       </c>
       <c r="Z123" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="124" spans="1:26">
@@ -14862,7 +14871,7 @@
         <v>1663</v>
       </c>
       <c r="Z124" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="125" spans="1:26">
@@ -14939,7 +14948,7 @@
         <v>1264</v>
       </c>
       <c r="Z125" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="126" spans="1:26">
@@ -15016,7 +15025,7 @@
         <v>1664</v>
       </c>
       <c r="Z126" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="127" spans="1:26">
@@ -15093,7 +15102,7 @@
         <v>1665</v>
       </c>
       <c r="Z127" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="128" spans="1:26">
@@ -15170,7 +15179,7 @@
         <v>1666</v>
       </c>
       <c r="Z128" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="129" spans="1:26">
@@ -15247,7 +15256,7 @@
         <v>1667</v>
       </c>
       <c r="Z129" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="130" spans="1:26">
@@ -15324,7 +15333,7 @@
         <v>1542</v>
       </c>
       <c r="Z130" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="131" spans="1:26">
@@ -15401,7 +15410,7 @@
         <v>1668</v>
       </c>
       <c r="Z131" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="132" spans="1:26">
@@ -15478,7 +15487,7 @@
         <v>1669</v>
       </c>
       <c r="Z132" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="133" spans="1:26">
@@ -15555,7 +15564,7 @@
         <v>1670</v>
       </c>
       <c r="Z133" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="134" spans="1:26">
@@ -15632,7 +15641,7 @@
         <v>1671</v>
       </c>
       <c r="Z134" t="s">
-        <v>1685</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="135" spans="1:26">
@@ -15709,7 +15718,7 @@
         <v>1672</v>
       </c>
       <c r="Z135" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="136" spans="1:26">
@@ -15786,7 +15795,7 @@
         <v>1672</v>
       </c>
       <c r="Z136" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="137" spans="1:26">
@@ -15863,7 +15872,7 @@
         <v>1673</v>
       </c>
       <c r="Z137" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="138" spans="1:26">
@@ -15940,7 +15949,7 @@
         <v>1269</v>
       </c>
       <c r="Z138" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="139" spans="1:26">
@@ -16017,7 +16026,7 @@
         <v>1674</v>
       </c>
       <c r="Z139" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="140" spans="1:26">
@@ -16094,7 +16103,7 @@
         <v>1675</v>
       </c>
       <c r="Z140" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="141" spans="1:26">
@@ -16171,7 +16180,7 @@
         <v>1675</v>
       </c>
       <c r="Z141" t="s">
-        <v>1685</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="142" spans="1:26">
@@ -16248,7 +16257,7 @@
         <v>1676</v>
       </c>
       <c r="Z142" t="s">
-        <v>1685</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="143" spans="1:26">
@@ -16325,7 +16334,7 @@
         <v>1677</v>
       </c>
       <c r="Z143" t="s">
-        <v>1685</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="144" spans="1:26">
@@ -16402,7 +16411,7 @@
         <v>1678</v>
       </c>
       <c r="Z144" t="s">
-        <v>1685</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="145" spans="1:26">
@@ -16479,7 +16488,7 @@
         <v>1679</v>
       </c>
       <c r="Z145" t="s">
-        <v>1685</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="146" spans="1:26">
@@ -16556,7 +16565,7 @@
         <v>1680</v>
       </c>
       <c r="Z146" t="s">
-        <v>1685</v>
+        <v>1688</v>
       </c>
     </row>
   </sheetData>

--- a/Results/OLS_Results_Top.xlsx
+++ b/Results/OLS_Results_Top.xlsx
@@ -1354,7 +1354,7 @@
     <t>HAC</t>
   </si>
   <si>
-    <t>Mon, 11 Apr 2022</t>
+    <t>Tue, 12 Apr 2022</t>
   </si>
   <si>
     <t>CLc1</t>
@@ -5056,28 +5056,28 @@
     <t>0.274</t>
   </si>
   <si>
-    <t>09:40:45</t>
-  </si>
-  <si>
-    <t>09:40:44</t>
-  </si>
-  <si>
-    <t>09:40:46</t>
-  </si>
-  <si>
-    <t>09:40:47</t>
-  </si>
-  <si>
-    <t>09:40:48</t>
-  </si>
-  <si>
-    <t>09:40:49</t>
-  </si>
-  <si>
-    <t>09:40:50</t>
-  </si>
-  <si>
-    <t>09:40:51</t>
+    <t>09:09:44</t>
+  </si>
+  <si>
+    <t>09:09:43</t>
+  </si>
+  <si>
+    <t>09:09:45</t>
+  </si>
+  <si>
+    <t>09:09:46</t>
+  </si>
+  <si>
+    <t>09:09:47</t>
+  </si>
+  <si>
+    <t>09:09:48</t>
+  </si>
+  <si>
+    <t>09:09:49</t>
+  </si>
+  <si>
+    <t>09:09:50</t>
   </si>
 </sst>
 </file>
@@ -7210,7 +7210,7 @@
         <v>1589</v>
       </c>
       <c r="Z23" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="24" spans="1:26">
@@ -7287,7 +7287,7 @@
         <v>1590</v>
       </c>
       <c r="Z24" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="25" spans="1:26">
@@ -7364,7 +7364,7 @@
         <v>1591</v>
       </c>
       <c r="Z25" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="26" spans="1:26">
@@ -7441,7 +7441,7 @@
         <v>1592</v>
       </c>
       <c r="Z26" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="27" spans="1:26">
@@ -8981,7 +8981,7 @@
         <v>1605</v>
       </c>
       <c r="Z46" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="47" spans="1:26">
@@ -9058,7 +9058,7 @@
         <v>1606</v>
       </c>
       <c r="Z47" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="48" spans="1:26">
@@ -9597,7 +9597,7 @@
         <v>1612</v>
       </c>
       <c r="Z54" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="55" spans="1:26">
@@ -10675,7 +10675,7 @@
         <v>1621</v>
       </c>
       <c r="Z68" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="69" spans="1:26">
@@ -10752,7 +10752,7 @@
         <v>1622</v>
       </c>
       <c r="Z69" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="70" spans="1:26">
@@ -10829,7 +10829,7 @@
         <v>1623</v>
       </c>
       <c r="Z70" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="71" spans="1:26">
@@ -10906,7 +10906,7 @@
         <v>1624</v>
       </c>
       <c r="Z71" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="72" spans="1:26">
@@ -10983,7 +10983,7 @@
         <v>1625</v>
       </c>
       <c r="Z72" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="73" spans="1:26">
@@ -11599,7 +11599,7 @@
         <v>320</v>
       </c>
       <c r="Z80" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="81" spans="1:26">
@@ -12138,7 +12138,7 @@
         <v>323</v>
       </c>
       <c r="Z87" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="88" spans="1:26">
@@ -12215,7 +12215,7 @@
         <v>301</v>
       </c>
       <c r="Z88" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="89" spans="1:26">
@@ -12292,7 +12292,7 @@
         <v>1635</v>
       </c>
       <c r="Z89" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="90" spans="1:26">
@@ -12369,7 +12369,7 @@
         <v>1635</v>
       </c>
       <c r="Z90" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="91" spans="1:26">
@@ -12446,7 +12446,7 @@
         <v>1636</v>
       </c>
       <c r="Z91" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="92" spans="1:26">
@@ -12523,7 +12523,7 @@
         <v>1635</v>
       </c>
       <c r="Z92" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="93" spans="1:26">
@@ -12600,7 +12600,7 @@
         <v>1637</v>
       </c>
       <c r="Z93" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="94" spans="1:26">
@@ -13601,7 +13601,7 @@
         <v>1622</v>
       </c>
       <c r="Z106" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="107" spans="1:26">
@@ -13678,7 +13678,7 @@
         <v>1650</v>
       </c>
       <c r="Z107" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="108" spans="1:26">
@@ -13755,7 +13755,7 @@
         <v>1651</v>
       </c>
       <c r="Z108" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="109" spans="1:26">
@@ -13832,7 +13832,7 @@
         <v>1652</v>
       </c>
       <c r="Z109" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="110" spans="1:26">
@@ -13909,7 +13909,7 @@
         <v>1653</v>
       </c>
       <c r="Z110" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="111" spans="1:26">
@@ -13986,7 +13986,7 @@
         <v>1621</v>
       </c>
       <c r="Z111" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="112" spans="1:26">
@@ -14063,7 +14063,7 @@
         <v>1654</v>
       </c>
       <c r="Z112" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="113" spans="1:26">
@@ -14140,7 +14140,7 @@
         <v>1651</v>
       </c>
       <c r="Z113" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="114" spans="1:26">
@@ -14217,7 +14217,7 @@
         <v>1655</v>
       </c>
       <c r="Z114" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="115" spans="1:26">
@@ -14294,7 +14294,7 @@
         <v>1656</v>
       </c>
       <c r="Z115" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="116" spans="1:26">
@@ -14371,7 +14371,7 @@
         <v>1657</v>
       </c>
       <c r="Z116" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="117" spans="1:26">
@@ -14448,7 +14448,7 @@
         <v>1658</v>
       </c>
       <c r="Z117" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="118" spans="1:26">
@@ -14525,7 +14525,7 @@
         <v>1659</v>
       </c>
       <c r="Z118" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="119" spans="1:26">
@@ -14602,7 +14602,7 @@
         <v>1557</v>
       </c>
       <c r="Z119" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="120" spans="1:26">
@@ -15449,7 +15449,7 @@
         <v>1668</v>
       </c>
       <c r="Z130" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="131" spans="1:26">
@@ -15526,7 +15526,7 @@
         <v>1669</v>
       </c>
       <c r="Z131" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="132" spans="1:26">
@@ -15680,7 +15680,7 @@
         <v>1671</v>
       </c>
       <c r="Z133" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="134" spans="1:26">
@@ -15757,7 +15757,7 @@
         <v>1671</v>
       </c>
       <c r="Z134" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="135" spans="1:26">
@@ -15834,7 +15834,7 @@
         <v>1672</v>
       </c>
       <c r="Z135" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="136" spans="1:26">
@@ -15911,7 +15911,7 @@
         <v>1268</v>
       </c>
       <c r="Z136" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="137" spans="1:26">
@@ -15988,7 +15988,7 @@
         <v>1673</v>
       </c>
       <c r="Z137" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="138" spans="1:26">
@@ -16065,7 +16065,7 @@
         <v>1674</v>
       </c>
       <c r="Z138" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="139" spans="1:26">
@@ -16142,7 +16142,7 @@
         <v>1674</v>
       </c>
       <c r="Z139" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="140" spans="1:26">
@@ -16219,7 +16219,7 @@
         <v>1675</v>
       </c>
       <c r="Z140" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="141" spans="1:26">
@@ -16296,7 +16296,7 @@
         <v>1676</v>
       </c>
       <c r="Z141" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="142" spans="1:26">
@@ -16373,7 +16373,7 @@
         <v>1677</v>
       </c>
       <c r="Z142" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="143" spans="1:26">
@@ -16450,7 +16450,7 @@
         <v>1678</v>
       </c>
       <c r="Z143" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="144" spans="1:26">

--- a/Results/OLS_Results_Top.xlsx
+++ b/Results/OLS_Results_Top.xlsx
@@ -1402,7 +1402,7 @@
     <t>HAC</t>
   </si>
   <si>
-    <t>Wed, 13 Apr 2022</t>
+    <t>Tue, 03 May 2022</t>
   </si>
   <si>
     <t>CLc1</t>
@@ -5110,19 +5110,19 @@
     <t>0.284</t>
   </si>
   <si>
-    <t>06:45:58</t>
-  </si>
-  <si>
-    <t>06:45:59</t>
-  </si>
-  <si>
-    <t>06:46:00</t>
-  </si>
-  <si>
-    <t>06:46:01</t>
-  </si>
-  <si>
-    <t>06:46:02</t>
+    <t>08:07:54</t>
+  </si>
+  <si>
+    <t>08:07:53</t>
+  </si>
+  <si>
+    <t>08:07:55</t>
+  </si>
+  <si>
+    <t>08:07:56</t>
+  </si>
+  <si>
+    <t>08:07:57</t>
   </si>
 </sst>
 </file>
@@ -5715,7 +5715,7 @@
         <v>1587</v>
       </c>
       <c r="Z3" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -5792,7 +5792,7 @@
         <v>1290</v>
       </c>
       <c r="Z4" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -5869,7 +5869,7 @@
         <v>1588</v>
       </c>
       <c r="Z5" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -5946,7 +5946,7 @@
         <v>1589</v>
       </c>
       <c r="Z6" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -6023,7 +6023,7 @@
         <v>1590</v>
       </c>
       <c r="Z7" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -6100,7 +6100,7 @@
         <v>1591</v>
       </c>
       <c r="Z8" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -6177,7 +6177,7 @@
         <v>1592</v>
       </c>
       <c r="Z9" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -6254,7 +6254,7 @@
         <v>1593</v>
       </c>
       <c r="Z10" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -6331,7 +6331,7 @@
         <v>1594</v>
       </c>
       <c r="Z11" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -6639,7 +6639,7 @@
         <v>1598</v>
       </c>
       <c r="Z15" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -7024,7 +7024,7 @@
         <v>1603</v>
       </c>
       <c r="Z20" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -7101,7 +7101,7 @@
         <v>1604</v>
       </c>
       <c r="Z21" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -7178,7 +7178,7 @@
         <v>1605</v>
       </c>
       <c r="Z22" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="23" spans="1:26">
@@ -7255,7 +7255,7 @@
         <v>1606</v>
       </c>
       <c r="Z23" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="24" spans="1:26">
@@ -7332,7 +7332,7 @@
         <v>1607</v>
       </c>
       <c r="Z24" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="25" spans="1:26">
@@ -7409,7 +7409,7 @@
         <v>1608</v>
       </c>
       <c r="Z25" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="26" spans="1:26">
@@ -7486,7 +7486,7 @@
         <v>1609</v>
       </c>
       <c r="Z26" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="27" spans="1:26">
@@ -7563,7 +7563,7 @@
         <v>1610</v>
       </c>
       <c r="Z27" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -7640,7 +7640,7 @@
         <v>1584</v>
       </c>
       <c r="Z28" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="29" spans="1:26">
@@ -7717,7 +7717,7 @@
         <v>319</v>
       </c>
       <c r="Z29" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="30" spans="1:26">
@@ -7794,7 +7794,7 @@
         <v>1576</v>
       </c>
       <c r="Z30" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="31" spans="1:26">
@@ -7871,7 +7871,7 @@
         <v>304</v>
       </c>
       <c r="Z31" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="32" spans="1:26">
@@ -7948,7 +7948,7 @@
         <v>1611</v>
       </c>
       <c r="Z32" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="33" spans="1:26">
@@ -8025,7 +8025,7 @@
         <v>337</v>
       </c>
       <c r="Z33" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="34" spans="1:26">
@@ -8102,7 +8102,7 @@
         <v>329</v>
       </c>
       <c r="Z34" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="35" spans="1:26">
@@ -8179,7 +8179,7 @@
         <v>1612</v>
       </c>
       <c r="Z35" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="36" spans="1:26">
@@ -8256,7 +8256,7 @@
         <v>294</v>
       </c>
       <c r="Z36" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="37" spans="1:26">
@@ -8333,7 +8333,7 @@
         <v>1613</v>
       </c>
       <c r="Z37" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="38" spans="1:26">
@@ -8410,7 +8410,7 @@
         <v>307</v>
       </c>
       <c r="Z38" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="39" spans="1:26">
@@ -8487,7 +8487,7 @@
         <v>326</v>
       </c>
       <c r="Z39" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="40" spans="1:26">
@@ -8564,7 +8564,7 @@
         <v>328</v>
       </c>
       <c r="Z40" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="41" spans="1:26">
@@ -8718,7 +8718,7 @@
         <v>1615</v>
       </c>
       <c r="Z42" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="43" spans="1:26">
@@ -8795,7 +8795,7 @@
         <v>1616</v>
       </c>
       <c r="Z43" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="44" spans="1:26">
@@ -8872,7 +8872,7 @@
         <v>1617</v>
       </c>
       <c r="Z44" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="45" spans="1:26">
@@ -8949,7 +8949,7 @@
         <v>1618</v>
       </c>
       <c r="Z45" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="46" spans="1:26">
@@ -9026,7 +9026,7 @@
         <v>1619</v>
       </c>
       <c r="Z46" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="47" spans="1:26">
@@ -9103,7 +9103,7 @@
         <v>1620</v>
       </c>
       <c r="Z47" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="48" spans="1:26">
@@ -9180,7 +9180,7 @@
         <v>1621</v>
       </c>
       <c r="Z48" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="49" spans="1:26">
@@ -9257,7 +9257,7 @@
         <v>1622</v>
       </c>
       <c r="Z49" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="50" spans="1:26">
@@ -9334,7 +9334,7 @@
         <v>1623</v>
       </c>
       <c r="Z50" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="51" spans="1:26">
@@ -9411,7 +9411,7 @@
         <v>1624</v>
       </c>
       <c r="Z51" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="52" spans="1:26">
@@ -9488,7 +9488,7 @@
         <v>1618</v>
       </c>
       <c r="Z52" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="53" spans="1:26">
@@ -9565,7 +9565,7 @@
         <v>1625</v>
       </c>
       <c r="Z53" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="54" spans="1:26">
@@ -13646,7 +13646,7 @@
         <v>325</v>
       </c>
       <c r="Z106" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="107" spans="1:26">
@@ -14185,7 +14185,7 @@
         <v>1671</v>
       </c>
       <c r="Z113" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="114" spans="1:26">
@@ -14262,7 +14262,7 @@
         <v>1672</v>
       </c>
       <c r="Z114" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="115" spans="1:26">
@@ -14339,7 +14339,7 @@
         <v>1602</v>
       </c>
       <c r="Z115" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="116" spans="1:26">
@@ -14416,7 +14416,7 @@
         <v>1673</v>
       </c>
       <c r="Z116" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="117" spans="1:26">
@@ -14493,7 +14493,7 @@
         <v>1674</v>
       </c>
       <c r="Z117" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="118" spans="1:26">
@@ -14570,7 +14570,7 @@
         <v>1675</v>
       </c>
       <c r="Z118" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="119" spans="1:26">
@@ -14724,7 +14724,7 @@
         <v>1677</v>
       </c>
       <c r="Z120" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="121" spans="1:26">

--- a/Results/OLS_Results_Top.xlsx
+++ b/Results/OLS_Results_Top.xlsx
@@ -1402,7 +1402,7 @@
     <t>HAC</t>
   </si>
   <si>
-    <t>Tue, 03 May 2022</t>
+    <t>Sat, 07 May 2022</t>
   </si>
   <si>
     <t>CLc1</t>
@@ -5110,19 +5110,19 @@
     <t>0.284</t>
   </si>
   <si>
-    <t>08:07:54</t>
-  </si>
-  <si>
-    <t>08:07:53</t>
-  </si>
-  <si>
-    <t>08:07:55</t>
-  </si>
-  <si>
-    <t>08:07:56</t>
-  </si>
-  <si>
-    <t>08:07:57</t>
+    <t>15:02:08</t>
+  </si>
+  <si>
+    <t>15:02:09</t>
+  </si>
+  <si>
+    <t>15:02:10</t>
+  </si>
+  <si>
+    <t>15:02:11</t>
+  </si>
+  <si>
+    <t>15:02:12</t>
   </si>
 </sst>
 </file>
@@ -5715,7 +5715,7 @@
         <v>1587</v>
       </c>
       <c r="Z3" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -5792,7 +5792,7 @@
         <v>1290</v>
       </c>
       <c r="Z4" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -5869,7 +5869,7 @@
         <v>1588</v>
       </c>
       <c r="Z5" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -5946,7 +5946,7 @@
         <v>1589</v>
       </c>
       <c r="Z6" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -6023,7 +6023,7 @@
         <v>1590</v>
       </c>
       <c r="Z7" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -6100,7 +6100,7 @@
         <v>1591</v>
       </c>
       <c r="Z8" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -6177,7 +6177,7 @@
         <v>1592</v>
       </c>
       <c r="Z9" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -6254,7 +6254,7 @@
         <v>1593</v>
       </c>
       <c r="Z10" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -6331,7 +6331,7 @@
         <v>1594</v>
       </c>
       <c r="Z11" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -6639,7 +6639,7 @@
         <v>1598</v>
       </c>
       <c r="Z15" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -7101,7 +7101,7 @@
         <v>1604</v>
       </c>
       <c r="Z21" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -7178,7 +7178,7 @@
         <v>1605</v>
       </c>
       <c r="Z22" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="23" spans="1:26">
@@ -7255,7 +7255,7 @@
         <v>1606</v>
       </c>
       <c r="Z23" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="24" spans="1:26">
@@ -7332,7 +7332,7 @@
         <v>1607</v>
       </c>
       <c r="Z24" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="25" spans="1:26">
@@ -7409,7 +7409,7 @@
         <v>1608</v>
       </c>
       <c r="Z25" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="26" spans="1:26">
@@ -7486,7 +7486,7 @@
         <v>1609</v>
       </c>
       <c r="Z26" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="27" spans="1:26">
@@ -7563,7 +7563,7 @@
         <v>1610</v>
       </c>
       <c r="Z27" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -7640,7 +7640,7 @@
         <v>1584</v>
       </c>
       <c r="Z28" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="29" spans="1:26">
@@ -7717,7 +7717,7 @@
         <v>319</v>
       </c>
       <c r="Z29" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="30" spans="1:26">
@@ -7794,7 +7794,7 @@
         <v>1576</v>
       </c>
       <c r="Z30" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="31" spans="1:26">
@@ -7871,7 +7871,7 @@
         <v>304</v>
       </c>
       <c r="Z31" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="32" spans="1:26">
@@ -7948,7 +7948,7 @@
         <v>1611</v>
       </c>
       <c r="Z32" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="33" spans="1:26">
@@ -8025,7 +8025,7 @@
         <v>337</v>
       </c>
       <c r="Z33" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="34" spans="1:26">
@@ -8102,7 +8102,7 @@
         <v>329</v>
       </c>
       <c r="Z34" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="35" spans="1:26">
@@ -8179,7 +8179,7 @@
         <v>1612</v>
       </c>
       <c r="Z35" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="36" spans="1:26">
@@ -8256,7 +8256,7 @@
         <v>294</v>
       </c>
       <c r="Z36" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="37" spans="1:26">
@@ -8333,7 +8333,7 @@
         <v>1613</v>
       </c>
       <c r="Z37" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="38" spans="1:26">
@@ -8410,7 +8410,7 @@
         <v>307</v>
       </c>
       <c r="Z38" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="39" spans="1:26">
@@ -8487,7 +8487,7 @@
         <v>326</v>
       </c>
       <c r="Z39" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="40" spans="1:26">
@@ -8564,7 +8564,7 @@
         <v>328</v>
       </c>
       <c r="Z40" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="41" spans="1:26">
@@ -8718,7 +8718,7 @@
         <v>1615</v>
       </c>
       <c r="Z42" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="43" spans="1:26">
@@ -8795,7 +8795,7 @@
         <v>1616</v>
       </c>
       <c r="Z43" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="44" spans="1:26">
@@ -8872,7 +8872,7 @@
         <v>1617</v>
       </c>
       <c r="Z44" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="45" spans="1:26">
@@ -8949,7 +8949,7 @@
         <v>1618</v>
       </c>
       <c r="Z45" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="46" spans="1:26">
@@ -9026,7 +9026,7 @@
         <v>1619</v>
       </c>
       <c r="Z46" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="47" spans="1:26">
@@ -9103,7 +9103,7 @@
         <v>1620</v>
       </c>
       <c r="Z47" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="48" spans="1:26">
@@ -9180,7 +9180,7 @@
         <v>1621</v>
       </c>
       <c r="Z48" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="49" spans="1:26">
@@ -10643,7 +10643,7 @@
         <v>1637</v>
       </c>
       <c r="Z67" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="68" spans="1:26">
@@ -11721,7 +11721,7 @@
         <v>1649</v>
       </c>
       <c r="Z81" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="82" spans="1:26">
@@ -11798,7 +11798,7 @@
         <v>1650</v>
       </c>
       <c r="Z82" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="83" spans="1:26">
@@ -11875,7 +11875,7 @@
         <v>1651</v>
       </c>
       <c r="Z83" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="84" spans="1:26">
@@ -13646,7 +13646,7 @@
         <v>325</v>
       </c>
       <c r="Z106" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="107" spans="1:26">
@@ -14031,7 +14031,7 @@
         <v>1669</v>
       </c>
       <c r="Z111" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="112" spans="1:26">
@@ -14108,7 +14108,7 @@
         <v>1670</v>
       </c>
       <c r="Z112" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="113" spans="1:26">
@@ -14185,7 +14185,7 @@
         <v>1671</v>
       </c>
       <c r="Z113" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="114" spans="1:26">
@@ -14262,7 +14262,7 @@
         <v>1672</v>
       </c>
       <c r="Z114" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="115" spans="1:26">
@@ -14339,7 +14339,7 @@
         <v>1602</v>
       </c>
       <c r="Z115" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="116" spans="1:26">
@@ -14416,7 +14416,7 @@
         <v>1673</v>
       </c>
       <c r="Z116" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="117" spans="1:26">
@@ -14493,7 +14493,7 @@
         <v>1674</v>
       </c>
       <c r="Z117" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="118" spans="1:26">
@@ -14570,7 +14570,7 @@
         <v>1675</v>
       </c>
       <c r="Z118" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="119" spans="1:26">
@@ -14724,7 +14724,7 @@
         <v>1677</v>
       </c>
       <c r="Z120" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="121" spans="1:26">
